--- a/data/trans_orig/P80_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P80_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>683557</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>675179</v>
+        <v>675812</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>687602</v>
+        <v>687702</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9896440736605591</v>
+        <v>0.9896440736605593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9775139163751833</v>
+        <v>0.9784311154781706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9955005701796892</v>
+        <v>0.9956455354967392</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1235</v>
@@ -762,19 +762,19 @@
         <v>731126</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>728167</v>
+        <v>728041</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>732369</v>
+        <v>732362</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9978218630160094</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9937838323284742</v>
+        <v>0.9936113891167767</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9995187869760738</v>
+        <v>0.9995085317805463</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1958</v>
@@ -783,19 +783,19 @@
         <v>1414682</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1406630</v>
+        <v>1406869</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1419252</v>
+        <v>1419456</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9938536511201659</v>
+        <v>0.993853651120166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9881969512811409</v>
+        <v>0.988364598802573</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9970643978806925</v>
+        <v>0.9972071480563133</v>
       </c>
     </row>
     <row r="5">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7887</v>
+        <v>8535</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003173160538587236</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01141796264121009</v>
+        <v>0.01235736843634068</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7685</v>
+        <v>6928</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0015397527191441</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.005398845945364794</v>
+        <v>0.004867305120139701</v>
       </c>
     </row>
     <row r="6">
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6376</v>
+        <v>6622</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00250431684526719</v>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.009230943390565571</v>
+        <v>0.009587281616224437</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>2</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3487</v>
+        <v>3512</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.001251925848851343</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.004758394596049558</v>
+        <v>0.0047928174076806</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -917,19 +917,19 @@
         <v>2647</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>901</v>
+        <v>561</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>7407</v>
+        <v>7493</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.001859639331580283</v>
+        <v>0.001859639331580284</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0006327990933419205</v>
+        <v>0.0003941913463131595</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.005203575049212951</v>
+        <v>0.005263743128187551</v>
       </c>
     </row>
     <row r="7">
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5941</v>
+        <v>4838</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001448169044522733</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.008601960047565844</v>
+        <v>0.007004770652171619</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5594</v>
+        <v>5032</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0007027133348497267</v>
+        <v>0.0007027133348497268</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003929959575171595</v>
+        <v>0.003535171220526584</v>
       </c>
     </row>
     <row r="8">
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7329</v>
+        <v>7244</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003230279911063733</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01061071538174929</v>
+        <v>0.01048831649818258</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1033,16 +1033,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>3152</v>
+        <v>3464</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.0009262111351393299</v>
+        <v>0.0009262111351393298</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.004301986437605657</v>
+        <v>0.004727303641092534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1051,19 +1051,19 @@
         <v>2910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>8978</v>
+        <v>8762</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.002044243494259784</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0004750861833632867</v>
+        <v>0.0004733169649352874</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006307066166356602</v>
+        <v>0.006155869616517907</v>
       </c>
     </row>
     <row r="9">
@@ -1155,19 +1155,19 @@
         <v>1028800</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1013296</v>
+        <v>1012917</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1037463</v>
+        <v>1038003</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9815083016973316</v>
+        <v>0.9815083016973317</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9667163886961074</v>
+        <v>0.9663552620341035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9897727757842637</v>
+        <v>0.990288028639547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1494</v>
@@ -1176,19 +1176,19 @@
         <v>1055216</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1046920</v>
+        <v>1047756</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1060662</v>
+        <v>1060824</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9880137726493684</v>
+        <v>0.9880137726493686</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9802461056641381</v>
+        <v>0.9810293235518545</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9931132807232707</v>
+        <v>0.993265210627708</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2444</v>
@@ -1197,19 +1197,19 @@
         <v>2084016</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2068032</v>
+        <v>2064789</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>2094416</v>
+        <v>2094616</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9847915240751159</v>
+        <v>0.9847915240751158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9772382248175054</v>
+        <v>0.9757057622033193</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9897061072794705</v>
+        <v>0.9898005451669691</v>
       </c>
     </row>
     <row r="11">
@@ -1226,19 +1226,19 @@
         <v>9237</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3753</v>
+        <v>3865</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21633</v>
+        <v>21778</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.008812654179461905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.003580660573108316</v>
+        <v>0.003687159167297372</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02063888064477689</v>
+        <v>0.02077667710999031</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -1247,19 +1247,19 @@
         <v>5110</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1833</v>
+        <v>1970</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>11672</v>
+        <v>11665</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.004784111801948493</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001716109649844852</v>
+        <v>0.001844738041474501</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0109289658404012</v>
+        <v>0.01092248527668502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>13</v>
@@ -1268,19 +1268,19 @@
         <v>14347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>8042</v>
+        <v>7467</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>27187</v>
+        <v>27754</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.006779503838584037</v>
+        <v>0.006779503838584036</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003800139773654947</v>
+        <v>0.003528519087593454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01284692027994549</v>
+        <v>0.01311483086277972</v>
       </c>
     </row>
     <row r="12">
@@ -1297,19 +1297,19 @@
         <v>6288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1758</v>
+        <v>1843</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15546</v>
+        <v>16725</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005999209394444965</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001676781003002525</v>
+        <v>0.001758739202222765</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01483103384181805</v>
+        <v>0.01595634656006487</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1318,19 +1318,19 @@
         <v>4345</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1992</v>
+        <v>1542</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9342</v>
+        <v>9090</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.004068094960162678</v>
+        <v>0.004068094960162679</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00186537719230753</v>
+        <v>0.001443707080395458</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.008747218073556356</v>
+        <v>0.008511490085164329</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>10</v>
@@ -1339,19 +1339,19 @@
         <v>10633</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>5452</v>
+        <v>5293</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20773</v>
+        <v>20453</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.005024602302745797</v>
+        <v>0.005024602302745796</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.002576146885433047</v>
+        <v>0.002501208811341122</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.009816082310389173</v>
+        <v>0.009664865588540067</v>
       </c>
     </row>
     <row r="13">
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15918</v>
+        <v>13890</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003679834728761553</v>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0151866810143682</v>
+        <v>0.01325102673119027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1392,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4900</v>
+        <v>5402</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.001306949181065808</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.004587902858758178</v>
+        <v>0.005058376430958606</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>4</v>
@@ -1410,19 +1410,19 @@
         <v>5253</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1404</v>
+        <v>1381</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>15674</v>
+        <v>16168</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.002482271787115247</v>
+        <v>0.002482271787115246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0006634877821126702</v>
+        <v>0.0006525419141688637</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007406454304250392</v>
+        <v>0.007640253562873879</v>
       </c>
     </row>
     <row r="14">
@@ -1455,16 +1455,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7558</v>
+        <v>7336</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.001827071407454735</v>
+        <v>0.001827071407454736</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.007076726837683096</v>
+        <v>0.006868865536108174</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1476,16 +1476,16 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7099</v>
+        <v>6752</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.0009220979964390189</v>
+        <v>0.0009220979964390187</v>
       </c>
       <c r="V14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003354514104282319</v>
+        <v>0.003190665025566905</v>
       </c>
     </row>
     <row r="15">
@@ -1577,19 +1577,19 @@
         <v>781677</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>765012</v>
+        <v>764110</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>790992</v>
+        <v>791439</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9745572463919139</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9537805597684649</v>
+        <v>0.952655467589186</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9861709116080751</v>
+        <v>0.9867280124320609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1027</v>
@@ -1598,19 +1598,19 @@
         <v>794207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>785667</v>
+        <v>784145</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>800779</v>
+        <v>800493</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9822945636166496</v>
+        <v>0.9822945636166498</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9717323639034667</v>
+        <v>0.9698494824709535</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9904236486794148</v>
+        <v>0.9900700080824887</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1688</v>
@@ -1619,19 +1619,19 @@
         <v>1575883</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1556537</v>
+        <v>1558758</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1587668</v>
+        <v>1587927</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9784413684020908</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9664302159778447</v>
+        <v>0.9678090845263478</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9857588140009538</v>
+        <v>0.9859195007107346</v>
       </c>
     </row>
     <row r="17">
@@ -1648,19 +1648,19 @@
         <v>12910</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5159</v>
+        <v>5401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27951</v>
+        <v>26888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01609600790422204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.00643164655555017</v>
+        <v>0.006733849661144868</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03484785672842271</v>
+        <v>0.03352257017582742</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1669,19 +1669,19 @@
         <v>3913</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1103</v>
+        <v>1335</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10078</v>
+        <v>10162</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004839647698003831</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001364321643335841</v>
+        <v>0.001651523727451689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01246482519967077</v>
+        <v>0.01256824327404886</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1690,19 +1690,19 @@
         <v>16823</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8778</v>
+        <v>7933</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>33835</v>
+        <v>30952</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01044533142792621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.005450150815628365</v>
+        <v>0.00492531678079124</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02100766348741307</v>
+        <v>0.01921761032983033</v>
       </c>
     </row>
     <row r="18">
@@ -1719,19 +1719,19 @@
         <v>6995</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2346</v>
+        <v>2246</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15939</v>
+        <v>16472</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008721052019693424</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002925334290197071</v>
+        <v>0.00279975107166182</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01987252469625438</v>
+        <v>0.02053605571499871</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -1740,19 +1740,19 @@
         <v>4428</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>782</v>
+        <v>1394</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12937</v>
+        <v>13217</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.005477020288511817</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0009667039052614571</v>
+        <v>0.001723804097373788</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01600070870661902</v>
+        <v>0.01634711246345277</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>9</v>
@@ -1761,19 +1761,19 @@
         <v>11423</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>5529</v>
+        <v>4972</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>22500</v>
+        <v>22606</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.007092552801836235</v>
+        <v>0.007092552801836234</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00343303041201979</v>
+        <v>0.00308694368984181</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01397019554318535</v>
+        <v>0.01403594985382237</v>
       </c>
     </row>
     <row r="19">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3451</v>
+        <v>3391</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0008407620386164786</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.004268063451011764</v>
+        <v>0.00419382163922361</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>3887</v>
+        <v>3426</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0004220613223756106</v>
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002413515809725385</v>
+        <v>0.0021271437481748</v>
       </c>
     </row>
     <row r="20">
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2504</v>
+        <v>2563</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0006256936841706326</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.003122394651449682</v>
+        <v>0.003195180808651226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1874,19 +1874,19 @@
         <v>5294</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2329</v>
+        <v>2007</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11684</v>
+        <v>11519</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.00654800635821813</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.00288004755609681</v>
+        <v>0.00248179575024028</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01445071518182231</v>
+        <v>0.0142466283812263</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7</v>
@@ -1895,19 +1895,19 @@
         <v>5796</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2514</v>
+        <v>2508</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11816</v>
+        <v>12083</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003598686045770978</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.001561088499873748</v>
+        <v>0.001556921226864514</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.007336483497917746</v>
+        <v>0.007502114443124431</v>
       </c>
     </row>
     <row r="21">
@@ -1999,19 +1999,19 @@
         <v>956814</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>942955</v>
+        <v>941772</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>967804</v>
+        <v>966842</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9675118055115467</v>
+        <v>0.9675118055115468</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9534978849586251</v>
+        <v>0.9523015318662673</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.978624551222677</v>
+        <v>0.9776516532336726</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1529</v>
@@ -2020,19 +2020,19 @@
         <v>1091257</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1080525</v>
+        <v>1080652</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1099223</v>
+        <v>1100800</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9763681488639959</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9667661104730519</v>
+        <v>0.9668797248192478</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9834955303299681</v>
+        <v>0.9849063658057424</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2507</v>
@@ -2041,19 +2041,19 @@
         <v>2048071</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2030888</v>
+        <v>2030043</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2061271</v>
+        <v>2061810</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9722105669002584</v>
+        <v>0.9722105669002583</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9640537061162245</v>
+        <v>0.963652750880063</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9784764910809566</v>
+        <v>0.978732422516159</v>
       </c>
     </row>
     <row r="23">
@@ -2070,19 +2070,19 @@
         <v>17889</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10358</v>
+        <v>10084</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>27764</v>
+        <v>28069</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01808886848689527</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01047384188240474</v>
+        <v>0.01019710594453948</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02807414327031365</v>
+        <v>0.02838297434463409</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>13</v>
@@ -2091,19 +2091,19 @@
         <v>9787</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>5263</v>
+        <v>4952</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>17160</v>
+        <v>16583</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.008756791351061893</v>
+        <v>0.008756791351061895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004709007491300237</v>
+        <v>0.004431060289549894</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01535309530060487</v>
+        <v>0.01483687569449023</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>29</v>
@@ -2112,19 +2112,19 @@
         <v>27676</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>18703</v>
+        <v>18543</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>39135</v>
+        <v>40075</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01313770501261482</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0088780493653447</v>
+        <v>0.008802314446903494</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01857742401835052</v>
+        <v>0.01902362638534676</v>
       </c>
     </row>
     <row r="24">
@@ -2141,19 +2141,19 @@
         <v>8464</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3599</v>
+        <v>3501</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>20741</v>
+        <v>19469</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.008559116434648045</v>
+        <v>0.008559116434648044</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003639550707262153</v>
+        <v>0.00354004627974793</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02097260012800203</v>
+        <v>0.01968618718849354</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>8</v>
@@ -2162,19 +2162,19 @@
         <v>6701</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2693</v>
+        <v>2879</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14103</v>
+        <v>14326</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.005995325521926863</v>
+        <v>0.005995325521926865</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.002409880658357912</v>
+        <v>0.002575963951065423</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01261829784291976</v>
+        <v>0.01281737833761232</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -2183,19 +2183,19 @@
         <v>15165</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>7891</v>
+        <v>8013</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>27191</v>
+        <v>27848</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.007198888937811815</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00374604267837535</v>
+        <v>0.00380377664388125</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01290748632342453</v>
+        <v>0.01321927807839515</v>
       </c>
     </row>
     <row r="25">
@@ -2212,19 +2212,19 @@
         <v>3538</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>914</v>
+        <v>920</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>10823</v>
+        <v>10335</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.00357738683382766</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0009239547143771865</v>
+        <v>0.0009298348888079479</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01094392161933358</v>
+        <v>0.01045098756658485</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2</v>
@@ -2236,16 +2236,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8443</v>
+        <v>8451</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.002026100759439319</v>
+        <v>0.00202610075943932</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.007554388036549384</v>
+        <v>0.00756112632582443</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2254,19 +2254,19 @@
         <v>5802</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1869</v>
+        <v>2394</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13313</v>
+        <v>14311</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.002754347028447231</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0008871666182484425</v>
+        <v>0.001136377389312917</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.006319481250127095</v>
+        <v>0.00679350777727339</v>
       </c>
     </row>
     <row r="26">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7633</v>
+        <v>7519</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.00226282273308234</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007718827259497791</v>
+        <v>0.007602703573052734</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2304,19 +2304,19 @@
         <v>7660</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3308</v>
+        <v>3120</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>14947</v>
+        <v>16036</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.006853633503576064</v>
+        <v>0.006853633503576066</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.002959315041153794</v>
+        <v>0.002791204170751359</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01337318054029618</v>
+        <v>0.01434801049159282</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>10</v>
@@ -2325,19 +2325,19 @@
         <v>9898</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5067</v>
+        <v>4939</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>19389</v>
+        <v>19650</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004698492120867783</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002405192171532872</v>
+        <v>0.002344565668345284</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009203753693278</v>
+        <v>0.009327581550379348</v>
       </c>
     </row>
     <row r="27">
@@ -2429,19 +2429,19 @@
         <v>3450847</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3422523</v>
+        <v>3425809</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3468620</v>
+        <v>3469201</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9775995414326285</v>
+        <v>0.9775995414326284</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9695755160642391</v>
+        <v>0.9705064450269529</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9826345329267283</v>
+        <v>0.982798949537516</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>5285</v>
@@ -2450,19 +2450,19 @@
         <v>3671806</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3656159</v>
+        <v>3655325</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3685058</v>
+        <v>3685651</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9852089259538656</v>
+        <v>0.9852089259538657</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9810105273685163</v>
+        <v>0.9807867969010827</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9887646652867622</v>
+        <v>0.9889239506382119</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8597</v>
@@ -2471,19 +2471,19 @@
         <v>7122653</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>7091463</v>
+        <v>7093520</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>7144152</v>
+        <v>7145405</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.9815075251108033</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9772095972819869</v>
+        <v>0.9774930472594223</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9844701111575729</v>
+        <v>0.9846427935588827</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>42228</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>29847</v>
+        <v>28545</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>61235</v>
+        <v>60544</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01196293980676486</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.008455455616585825</v>
+        <v>0.008086588691028537</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.01734736081220248</v>
+        <v>0.01715180240209618</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -2521,19 +2521,19 @@
         <v>18810</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>11976</v>
+        <v>11834</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28968</v>
+        <v>28125</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.005046962074702111</v>
+        <v>0.005046962074702112</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.003213416144292593</v>
+        <v>0.003175260156435167</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.007772715917932716</v>
+        <v>0.007546324902780087</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>56</v>
@@ -2542,19 +2542,19 @@
         <v>61038</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>44960</v>
+        <v>45548</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>79906</v>
+        <v>82262</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.00841107197565579</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.006195462254431882</v>
+        <v>0.00627660604319714</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.01101113970426712</v>
+        <v>0.01133578924136771</v>
       </c>
     </row>
     <row r="30">
@@ -2571,19 +2571,19 @@
         <v>23478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>14520</v>
+        <v>13368</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40507</v>
+        <v>37308</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.006651006710455616</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.004113375300515328</v>
+        <v>0.003787006319815794</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.01147519604403709</v>
+        <v>0.01056918921458934</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>20</v>
@@ -2592,19 +2592,19 @@
         <v>16391</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>9706</v>
+        <v>10366</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>27622</v>
+        <v>27201</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.004398041057117332</v>
+        <v>0.004398041057117333</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.002604322315286583</v>
+        <v>0.002781302815450121</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.007411433846501113</v>
+        <v>0.007298505742108134</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>37</v>
@@ -2613,19 +2613,19 @@
         <v>39869</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>28349</v>
+        <v>27635</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57240</v>
+        <v>57280</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.005493941644790758</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.003906571270198778</v>
+        <v>0.003808153338492096</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.007887787098319433</v>
+        <v>0.007893175822101174</v>
       </c>
     </row>
     <row r="31">
@@ -2642,19 +2642,19 @@
         <v>8395</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3358</v>
+        <v>3281</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>19438</v>
+        <v>19154</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002378307963427006</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0009512454595470477</v>
+        <v>0.0009294522830991007</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.005506665201839163</v>
+        <v>0.005426307512649558</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2663,19 +2663,19 @@
         <v>4340</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1441</v>
+        <v>1411</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10201</v>
+        <v>10290</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001164532218172593</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.000386772617651455</v>
+        <v>0.0003785491029034801</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.002737090911812391</v>
+        <v>0.002761041713226333</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>11</v>
@@ -2684,19 +2684,19 @@
         <v>12735</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>6783</v>
+        <v>6317</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>24514</v>
+        <v>23339</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001754944038502432</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.000934638553266774</v>
+        <v>0.0008705555581036832</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.003378087243042077</v>
+        <v>0.003216192735287559</v>
       </c>
     </row>
     <row r="32">
@@ -2713,19 +2713,19 @@
         <v>4971</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1882</v>
+        <v>1606</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11954</v>
+        <v>11720</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001408204086723986</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0005331816162734632</v>
+        <v>0.0004548495407707768</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.003386528741012892</v>
+        <v>0.003320133759682088</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>17</v>
@@ -2734,19 +2734,19 @@
         <v>15584</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>9182</v>
+        <v>9125</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>24088</v>
+        <v>25293</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.004181538696142368</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002463615356653859</v>
+        <v>0.002448491106981986</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.00646324972179552</v>
+        <v>0.006786529315539046</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>22</v>
@@ -2755,19 +2755,19 @@
         <v>20555</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12960</v>
+        <v>12662</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>31340</v>
+        <v>32168</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.002832517230247742</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.001785853229352649</v>
+        <v>0.001744882856041986</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.00431870334488344</v>
+        <v>0.004432749182390588</v>
       </c>
     </row>
     <row r="33">
